--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H2">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I2">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J2">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N2">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O2">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P2">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q2">
-        <v>1678.555240860322</v>
+        <v>1948.826536806743</v>
       </c>
       <c r="R2">
-        <v>15106.9971677429</v>
+        <v>17539.43883126069</v>
       </c>
       <c r="S2">
-        <v>0.01060798269082804</v>
+        <v>0.01142235730319184</v>
       </c>
       <c r="T2">
-        <v>0.01154153529367873</v>
+        <v>0.01181723714128128</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H3">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I3">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J3">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P3">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q3">
-        <v>11054.35428191263</v>
+        <v>9865.499557470495</v>
       </c>
       <c r="R3">
-        <v>99489.18853721362</v>
+        <v>88789.49601723446</v>
       </c>
       <c r="S3">
-        <v>0.06986031560135463</v>
+        <v>0.05782313550828036</v>
       </c>
       <c r="T3">
-        <v>0.07600835348625849</v>
+        <v>0.05982212659052859</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H4">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I4">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J4">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N4">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O4">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P4">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q4">
-        <v>9283.567970536402</v>
+        <v>11498.28798502147</v>
       </c>
       <c r="R4">
-        <v>83552.11173482762</v>
+        <v>103484.5918651932</v>
       </c>
       <c r="S4">
-        <v>0.0586694592726666</v>
+        <v>0.06739314723983421</v>
       </c>
       <c r="T4">
-        <v>0.06383264892032667</v>
+        <v>0.06972298112298257</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H5">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I5">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J5">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N5">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O5">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P5">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q5">
-        <v>4100.214480373593</v>
+        <v>3512.278986652987</v>
       </c>
       <c r="R5">
-        <v>24601.28688224155</v>
+        <v>21073.67391991792</v>
       </c>
       <c r="S5">
-        <v>0.02591216730775732</v>
+        <v>0.02058598073062948</v>
       </c>
       <c r="T5">
-        <v>0.01879504031599211</v>
+        <v>0.01419843613843859</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H6">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I6">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J6">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N6">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O6">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P6">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q6">
-        <v>9557.127805763377</v>
+        <v>13328.05849478663</v>
       </c>
       <c r="R6">
-        <v>86014.15025187038</v>
+        <v>119952.5264530797</v>
       </c>
       <c r="S6">
-        <v>0.06039827815592609</v>
+        <v>0.07811769975933518</v>
       </c>
       <c r="T6">
-        <v>0.06571361203452648</v>
+        <v>0.08081828982267228</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I7">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J7">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N7">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O7">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P7">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q7">
-        <v>4772.300917276123</v>
+        <v>6208.399630758136</v>
       </c>
       <c r="R7">
-        <v>42950.70825548511</v>
+        <v>55875.59667682323</v>
       </c>
       <c r="S7">
-        <v>0.03015955882389725</v>
+        <v>0.03638833807123801</v>
       </c>
       <c r="T7">
-        <v>0.03281374251381049</v>
+        <v>0.03764631141811441</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I8">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J8">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P8">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q8">
         <v>31428.6380306603</v>
@@ -948,10 +948,10 @@
         <v>282857.7422759426</v>
       </c>
       <c r="S8">
-        <v>0.1986198845947227</v>
+        <v>0.1842078432116942</v>
       </c>
       <c r="T8">
-        <v>0.2160993729805427</v>
+        <v>0.1905760526251672</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I9">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J9">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N9">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O9">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P9">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q9">
-        <v>26394.11492866846</v>
+        <v>36630.2313378428</v>
       </c>
       <c r="R9">
-        <v>237547.0343580162</v>
+        <v>329672.0820405852</v>
       </c>
       <c r="S9">
-        <v>0.16680315755324</v>
+        <v>0.2146951421982339</v>
       </c>
       <c r="T9">
-        <v>0.1814826236153576</v>
+        <v>0.2221173214156655</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I10">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J10">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N10">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O10">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P10">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q10">
-        <v>11657.32103978103</v>
+        <v>11189.1084978685</v>
       </c>
       <c r="R10">
-        <v>69943.92623868617</v>
+        <v>67134.650987211</v>
       </c>
       <c r="S10">
-        <v>0.07367089077630948</v>
+        <v>0.06558100105525615</v>
       </c>
       <c r="T10">
-        <v>0.0534361848551845</v>
+        <v>0.04523212508367364</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I11">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J11">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N11">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O11">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P11">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q11">
-        <v>27171.87297964239</v>
+        <v>42459.35278228496</v>
       </c>
       <c r="R11">
-        <v>244546.8568167815</v>
+        <v>382134.1750405647</v>
       </c>
       <c r="S11">
-        <v>0.1717183630475524</v>
+        <v>0.2488604753587803</v>
       </c>
       <c r="T11">
-        <v>0.1868303904190629</v>
+        <v>0.2574637769022433</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H12">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I12">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J12">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N12">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O12">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P12">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q12">
-        <v>5.066094893039556</v>
+        <v>10.31971967728578</v>
       </c>
       <c r="R12">
-        <v>45.594854037356</v>
+        <v>92.877477095572</v>
       </c>
       <c r="S12">
-        <v>3.201625161166078E-05</v>
+        <v>6.04853860497421E-05</v>
       </c>
       <c r="T12">
-        <v>3.483383304035516E-05</v>
+        <v>6.257641321831309E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H13">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I13">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J13">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P13">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q13">
-        <v>33.36345829449389</v>
+        <v>52.24127852666778</v>
       </c>
       <c r="R13">
-        <v>300.271124650445</v>
+        <v>470.17150674001</v>
       </c>
       <c r="S13">
-        <v>0.0002108473879672602</v>
+        <v>0.0003061937725278096</v>
       </c>
       <c r="T13">
-        <v>0.0002294029544286664</v>
+        <v>0.0003167791310584861</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H14">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I14">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J14">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N14">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O14">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P14">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q14">
-        <v>28.01899820741955</v>
+        <v>60.88746562767667</v>
       </c>
       <c r="R14">
-        <v>252.170983866776</v>
+        <v>547.9871906490901</v>
       </c>
       <c r="S14">
-        <v>0.0001770719489972279</v>
+        <v>0.0003568703394324226</v>
       </c>
       <c r="T14">
-        <v>0.0001926551172296888</v>
+        <v>0.000369207626571446</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H15">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I15">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J15">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N15">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O15">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P15">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q15">
-        <v>12.37497291345683</v>
+        <v>18.59874847048767</v>
       </c>
       <c r="R15">
-        <v>74.24983748074099</v>
+        <v>111.592490822926</v>
       </c>
       <c r="S15">
-        <v>7.820624264837024E-05</v>
+        <v>0.0001090099844238574</v>
       </c>
       <c r="T15">
-        <v>5.672584103369617E-05</v>
+        <v>7.518569664215341E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H16">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I16">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J16">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N16">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O16">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P16">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q16">
-        <v>28.84463685811645</v>
+        <v>70.57674190645778</v>
       </c>
       <c r="R16">
-        <v>259.601731723048</v>
+        <v>635.1906771581201</v>
       </c>
       <c r="S16">
-        <v>0.0001822897460063881</v>
+        <v>0.0004136606045357113</v>
       </c>
       <c r="T16">
-        <v>0.0001983321050313887</v>
+        <v>0.0004279611756181267</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H17">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I17">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J17">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N17">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O17">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P17">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q17">
-        <v>988.8334107457262</v>
+        <v>108.9581061458934</v>
       </c>
       <c r="R17">
-        <v>5933.000464474357</v>
+        <v>653.7486368753601</v>
       </c>
       <c r="S17">
-        <v>0.006249140600178784</v>
+        <v>0.00063861939273301</v>
       </c>
       <c r="T17">
-        <v>0.004532729668100806</v>
+        <v>0.0004404646435424313</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H18">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I18">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J18">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P18">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q18">
-        <v>6512.097178626533</v>
+        <v>551.5761037031334</v>
       </c>
       <c r="R18">
-        <v>39072.5830717592</v>
+        <v>3309.4566222188</v>
       </c>
       <c r="S18">
-        <v>0.04115456701708202</v>
+        <v>0.003232868199097374</v>
       </c>
       <c r="T18">
-        <v>0.02985090892191379</v>
+        <v>0.002229753989839154</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H19">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I19">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J19">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N19">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O19">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P19">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q19">
-        <v>5468.930635544796</v>
+        <v>642.8646465482001</v>
       </c>
       <c r="R19">
-        <v>32813.58381326878</v>
+        <v>3857.187879289201</v>
       </c>
       <c r="S19">
-        <v>0.03456205676583148</v>
+        <v>0.003767923697557826</v>
       </c>
       <c r="T19">
-        <v>0.02506912071854914</v>
+        <v>0.002598789180574945</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H20">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I20">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J20">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N20">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O20">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P20">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q20">
-        <v>2415.427845757873</v>
+        <v>196.37010242522</v>
       </c>
       <c r="R20">
-        <v>9661.711383031492</v>
+        <v>785.4804097008802</v>
       </c>
       <c r="S20">
-        <v>0.01526480401420148</v>
+        <v>0.001150953884916065</v>
       </c>
       <c r="T20">
-        <v>0.007381412843758155</v>
+        <v>0.0005292192276255909</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H21">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I21">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J21">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N21">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O21">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P21">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q21">
-        <v>5630.084167061509</v>
+        <v>745.1663782109335</v>
       </c>
       <c r="R21">
-        <v>33780.50500236906</v>
+        <v>4470.998269265601</v>
       </c>
       <c r="S21">
-        <v>0.03558050038405813</v>
+        <v>0.004367529106103673</v>
       </c>
       <c r="T21">
-        <v>0.02580783503128069</v>
+        <v>0.003012345338666241</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H22">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I22">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J22">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N22">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O22">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P22">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q22">
-        <v>0.6584859569311112</v>
+        <v>4.312360953041556</v>
       </c>
       <c r="R22">
-        <v>5.92637361238</v>
+        <v>38.811248577374</v>
       </c>
       <c r="S22">
-        <v>4.161440424027026E-06</v>
+        <v>2.527537812918143E-05</v>
       </c>
       <c r="T22">
-        <v>4.527666845457513E-06</v>
+        <v>2.614916774706631E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H23">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I23">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J23">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>211.087055</v>
       </c>
       <c r="O23">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P23">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q23">
-        <v>4.336549003802778</v>
+        <v>21.83036523281055</v>
       </c>
       <c r="R23">
-        <v>39.028941034225</v>
+        <v>196.473287095295</v>
       </c>
       <c r="S23">
-        <v>2.740573300804189E-05</v>
+        <v>0.000127950962817306</v>
       </c>
       <c r="T23">
-        <v>2.981756701346593E-05</v>
+        <v>0.0001323743278145266</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H24">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I24">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J24">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N24">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O24">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P24">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q24">
-        <v>3.641881416831111</v>
+        <v>25.44339744812833</v>
       </c>
       <c r="R24">
-        <v>32.77693275148</v>
+        <v>228.990577033155</v>
       </c>
       <c r="S24">
-        <v>2.301563516729534E-05</v>
+        <v>0.0001491274729539776</v>
       </c>
       <c r="T24">
-        <v>2.504111981813928E-05</v>
+        <v>0.0001542829264923027</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H25">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I25">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J25">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N25">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O25">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P25">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q25">
-        <v>1.608486625884167</v>
+        <v>7.771966602552832</v>
       </c>
       <c r="R25">
-        <v>9.650919755305001</v>
+        <v>46.631799615317</v>
       </c>
       <c r="S25">
-        <v>1.016516934948314E-05</v>
+        <v>4.555263272856172E-05</v>
       </c>
       <c r="T25">
-        <v>7.373168190575356E-06</v>
+        <v>3.14182819462133E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H26">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I26">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J26">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N26">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O26">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P26">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q26">
-        <v>3.74919710444889</v>
+        <v>29.49231137161556</v>
       </c>
       <c r="R26">
-        <v>33.74277394004</v>
+        <v>265.43080234454</v>
       </c>
       <c r="S26">
-        <v>2.369383921384207E-05</v>
+        <v>0.0001728587495198845</v>
       </c>
       <c r="T26">
-        <v>2.577900902550976E-05</v>
+        <v>0.0001788346118756945</v>
       </c>
     </row>
   </sheetData>
